--- a/nota.xlsx
+++ b/nota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Luis\informatica\web\proyectos\payment-gateway-stripe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F0437-A8C2-4A99-8C90-A7FD6E3E8308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD0F11-2B6B-46E8-9642-0E2893590DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
